--- a/Financials/Yearly/JEF_YR_FIN.xlsx
+++ b/Financials/Yearly/JEF_YR_FIN.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7898EB6A-8D0F-478B-BAC4-23437DF2DCB6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="JEF" sheetId="6" r:id="rId1"/>
@@ -17,12 +18,12 @@
   <definedNames>
     <definedName name="Ticker">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511" calcMode="manual"/>
+  <calcPr calcId="152511" calcMode="manual" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="92">
   <si>
     <t>JEF</t>
   </si>
@@ -303,9 +304,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +348,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -444,6 +445,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -479,6 +497,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -654,140 +689,153 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="11" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43434</v>
+      </c>
+      <c r="E7" s="2">
         <v>43100</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>42735</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42369</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42004</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>41639</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41274</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>40908</v>
       </c>
-      <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="3">
         <v>12206600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>10845700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>11621000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>12281600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>10755400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>8814100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1400</v>
       </c>
-      <c r="K8" s="3"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>8016500</v>
+        <v>1737000</v>
       </c>
       <c r="E9" s="3">
-        <v>7663400</v>
+        <v>8191000</v>
       </c>
       <c r="F9" s="3">
-        <v>8474700</v>
+        <v>7830600</v>
       </c>
       <c r="G9" s="3">
-        <v>8872700</v>
+        <v>8674500</v>
       </c>
       <c r="H9" s="3">
-        <v>8141000</v>
+        <v>9088000</v>
       </c>
       <c r="I9" s="3">
+        <v>8291700</v>
+      </c>
+      <c r="J9" s="3">
         <v>15047600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>401400</v>
       </c>
-      <c r="K9" s="3"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="3">
-        <v>4190100</v>
+      <c r="D10" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E10" s="3">
-        <v>3182300</v>
+        <v>4015600</v>
       </c>
       <c r="F10" s="3">
-        <v>3146300</v>
+        <v>3015100</v>
       </c>
       <c r="G10" s="3">
-        <v>3408900</v>
+        <v>2946500</v>
       </c>
       <c r="H10" s="3">
-        <v>2614400</v>
+        <v>3193600</v>
       </c>
       <c r="I10" s="3">
+        <v>2463600</v>
+      </c>
+      <c r="J10" s="3">
         <v>-6233600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>-400000</v>
       </c>
-      <c r="K10" s="3"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -799,8 +847,9 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -825,9 +874,12 @@
       <c r="J12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K12" s="3"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L12" s="3"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -852,63 +904,72 @@
       <c r="J13" s="3">
         <v>0</v>
       </c>
-      <c r="K13" s="3"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K13" s="3">
+        <v>0</v>
+      </c>
+      <c r="L13" s="3"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="3">
         <v>-168100</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>63800</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>-22700</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>90300</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>28400</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>6400</v>
       </c>
-      <c r="K14" s="3"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>120300</v>
+      </c>
+      <c r="E15" s="3">
         <v>208900</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>211600</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>224100</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>186000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>167400</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>116400</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>36800</v>
       </c>
-      <c r="K15" s="3"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -917,62 +978,69 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>11033000</v>
+        <v>3525000</v>
       </c>
       <c r="E17" s="3">
-        <v>10604700</v>
+        <v>11140900</v>
       </c>
       <c r="F17" s="3">
+        <v>10713400</v>
+      </c>
+      <c r="G17" s="3">
         <v>11326300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>11952300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>10487500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>7958600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>497600</v>
       </c>
-      <c r="K17" s="3"/>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3"/>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
-        <v>1173500</v>
+      <c r="D18" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E18" s="3">
-        <v>241000</v>
+        <v>1065700</v>
       </c>
       <c r="F18" s="3">
+        <v>132300</v>
+      </c>
+      <c r="G18" s="3">
         <v>294700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>329300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>267900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>855400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-496200</v>
       </c>
-      <c r="K18" s="3"/>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3"/>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -984,143 +1052,159 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="3">
         <v>-51900</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>184100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>63000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>30600</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>243600</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>590500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>641200</v>
       </c>
-      <c r="K20" s="3"/>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3"/>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
-        <v>1285700</v>
+      <c r="D21" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E21" s="3">
-        <v>591900</v>
+        <v>1160000</v>
       </c>
       <c r="F21" s="3">
-        <v>529700</v>
+        <v>460500</v>
       </c>
       <c r="G21" s="3">
-        <v>499600</v>
+        <v>521700</v>
       </c>
       <c r="H21" s="3">
-        <v>650500</v>
+        <v>484800</v>
       </c>
       <c r="I21" s="3">
-        <v>1616100</v>
+        <v>622700</v>
       </c>
       <c r="J21" s="3">
+        <v>1542500</v>
+      </c>
+      <c r="K21" s="3">
         <v>241600</v>
       </c>
-      <c r="K21" s="3"/>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3"/>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
-        <v>107900</v>
-      </c>
-      <c r="E22" s="3">
-        <v>108700</v>
-      </c>
-      <c r="F22" s="3">
+      <c r="D22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G22" s="3">
         <v>111400</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>117200</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>85000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>92600</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>111700</v>
       </c>
-      <c r="K22" s="3"/>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3"/>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="3">
         <v>1013800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>316400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>246300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>242700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>426500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>1353400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>33300</v>
       </c>
-      <c r="K23" s="3"/>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3"/>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>19000</v>
+      </c>
+      <c r="E24" s="3">
         <v>310500</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>122100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>109900</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>166000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>136500</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>539500</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>62400</v>
       </c>
-      <c r="K24" s="3"/>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3"/>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1145,63 +1229,72 @@
       <c r="J25" s="3">
         <v>0</v>
       </c>
-      <c r="K25" s="3"/>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K25" s="3">
+        <v>0</v>
+      </c>
+      <c r="L25" s="3"/>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" s="3">
         <v>703300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>194300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>136300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>76700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>290100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>813900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-29100</v>
       </c>
-      <c r="K26" s="3"/>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3"/>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" s="3">
         <v>617200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>125400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>269400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>215700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>411100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>892400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>33200</v>
       </c>
-      <c r="K27" s="3"/>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3"/>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1226,36 +1319,42 @@
       <c r="J28" s="3">
         <v>0</v>
       </c>
-      <c r="K28" s="3"/>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K28" s="3">
+        <v>0</v>
+      </c>
+      <c r="L28" s="3"/>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3">
+      <c r="D29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" s="3">
         <v>-450500</v>
       </c>
-      <c r="E29" s="3">
-        <v>0</v>
-      </c>
       <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
         <v>5500</v>
       </c>
-      <c r="G29" s="3">
+      <c r="H29" s="3">
         <v>-16200</v>
       </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
         <v>-46900</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>-35500</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>-2400</v>
       </c>
-      <c r="K29" s="3"/>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3"/>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1280,9 +1379,12 @@
       <c r="J30" s="3">
         <v>0</v>
       </c>
-      <c r="K30" s="3"/>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K30" s="3">
+        <v>0</v>
+      </c>
+      <c r="L30" s="3"/>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1307,63 +1409,72 @@
       <c r="J31" s="3">
         <v>0</v>
       </c>
-      <c r="K31" s="3"/>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K31" s="3">
+        <v>0</v>
+      </c>
+      <c r="L31" s="3"/>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32" s="3">
         <v>51900</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-184100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-63000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-30600</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-243600</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-590500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-641200</v>
       </c>
-      <c r="K32" s="3"/>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3"/>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E33" s="3">
         <v>166700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>125400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>274900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>199500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>364200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>856900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>30800</v>
       </c>
-      <c r="K33" s="3"/>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3"/>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1388,68 +1499,77 @@
       <c r="J34" s="3">
         <v>0</v>
       </c>
-      <c r="K34" s="3"/>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K34" s="3">
+        <v>0</v>
+      </c>
+      <c r="L34" s="3"/>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35" s="3">
         <v>166700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>125400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>274900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>199500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>364200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>856900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>30800</v>
       </c>
-      <c r="K35" s="3"/>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3"/>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43434</v>
+      </c>
+      <c r="E38" s="2">
         <v>43100</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>42735</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42369</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42004</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>41639</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41274</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>40908</v>
       </c>
-      <c r="K38" s="2"/>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L38" s="2"/>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1461,8 +1581,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1474,46 +1595,50 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>5853500</v>
+        <v>5258800</v>
       </c>
       <c r="E41" s="3">
-        <v>4664900</v>
+        <v>5275500</v>
       </c>
       <c r="F41" s="3">
-        <v>4389700</v>
+        <v>3807600</v>
       </c>
       <c r="G41" s="3">
-        <v>7721400</v>
+        <v>3638600</v>
       </c>
       <c r="H41" s="3">
-        <v>7524200</v>
+        <v>4276800</v>
       </c>
       <c r="I41" s="3">
+        <v>3907600</v>
+      </c>
+      <c r="J41" s="3">
         <v>3648900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>168500</v>
       </c>
-      <c r="K41" s="3"/>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3"/>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>8</v>
+      <c r="D42" s="3">
+        <v>9324000</v>
+      </c>
+      <c r="E42" s="3">
+        <v>11411400</v>
+      </c>
+      <c r="F42" s="3">
+        <v>11606000</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>8</v>
@@ -1521,204 +1646,228 @@
       <c r="H42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I42" s="3">
+      <c r="I42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J42" s="3">
         <v>1672600</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>150100</v>
       </c>
-      <c r="K42" s="3"/>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3"/>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>6287400</v>
+      </c>
+      <c r="E43" s="3">
         <v>5419000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>4425200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>3831000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>3934800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>3227900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>936400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>339000</v>
       </c>
-      <c r="K43" s="3"/>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3"/>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E44" s="3">
+      <c r="E44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F44" s="3">
         <v>309900</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>288100</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>422900</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>364300</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>383500</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>354600</v>
       </c>
-      <c r="K44" s="3"/>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3"/>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3" t="s">
-        <v>8</v>
+      <c r="D45" s="3">
+        <v>708000</v>
       </c>
       <c r="E45" s="3">
-        <v>500</v>
+        <v>578000</v>
       </c>
       <c r="F45" s="3">
-        <v>258300</v>
+        <v>857800</v>
       </c>
       <c r="G45" s="3">
-        <v>223700</v>
+        <v>1009400</v>
       </c>
       <c r="H45" s="3">
-        <v>185000</v>
+        <v>3668400</v>
       </c>
       <c r="I45" s="3">
+        <v>3801600</v>
+      </c>
+      <c r="J45" s="3">
         <v>60200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>241300</v>
       </c>
-      <c r="K45" s="3"/>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3"/>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D46" s="3">
-        <v>11272500</v>
+      <c r="D46" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E46" s="3">
-        <v>9400500</v>
+        <v>22683900</v>
       </c>
       <c r="F46" s="3">
+        <v>21006500</v>
+      </c>
+      <c r="G46" s="3">
         <v>8508800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>12302900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>11301500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>536300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1253500</v>
       </c>
-      <c r="K46" s="3"/>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3"/>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>30277400</v>
+        <v>40163600</v>
       </c>
       <c r="E47" s="3">
-        <v>29532800</v>
+        <v>18866100</v>
       </c>
       <c r="F47" s="3">
+        <v>17926700</v>
+      </c>
+      <c r="G47" s="3">
         <v>56959600</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>34000700</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>29999100</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>6989600</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>4218700</v>
       </c>
-      <c r="K47" s="3"/>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3"/>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3">
+      <c r="D48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E48" s="3">
         <v>750400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>709200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1443800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>726400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>885900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1902300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1085700</v>
       </c>
-      <c r="K48" s="3"/>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3"/>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1890100</v>
+      </c>
+      <c r="E49" s="3">
         <v>2463200</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>2513700</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>4384700</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>2720800</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>2768600</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>2612600</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>876600</v>
       </c>
-      <c r="K49" s="3"/>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3"/>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1743,9 +1892,12 @@
       <c r="J50" s="3">
         <v>0</v>
       </c>
-      <c r="K50" s="3"/>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K50" s="3">
+        <v>0</v>
+      </c>
+      <c r="L50" s="3"/>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1770,36 +1922,42 @@
       <c r="J51" s="3">
         <v>0</v>
       </c>
-      <c r="K51" s="3"/>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K51" s="3">
+        <v>0</v>
+      </c>
+      <c r="L51" s="3"/>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>2372300</v>
+      </c>
+      <c r="E52" s="3">
         <v>2405600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>2915200</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>2760800</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>2873200</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>2911700</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>4118300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>2030300</v>
       </c>
-      <c r="K52" s="3"/>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3"/>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1824,36 +1982,42 @@
       <c r="J53" s="3">
         <v>0</v>
       </c>
-      <c r="K53" s="3"/>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K53" s="3">
+        <v>0</v>
+      </c>
+      <c r="L53" s="3"/>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>47131100</v>
+      </c>
+      <c r="E54" s="3">
         <v>47169100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>45071300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>46331200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>52623900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>47866800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>9349100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>9263200</v>
       </c>
-      <c r="K54" s="3"/>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3"/>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1865,8 +2029,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1878,143 +2043,159 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>7407000</v>
+      </c>
+      <c r="E57" s="3">
         <v>7167700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>7373700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>7107100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>10516500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1721900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1259600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>81000</v>
       </c>
-      <c r="K57" s="3"/>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3"/>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>436200</v>
+        <v>9030600</v>
       </c>
       <c r="E58" s="3">
-        <v>525800</v>
+        <v>9096700</v>
       </c>
       <c r="F58" s="3">
+        <v>7317500</v>
+      </c>
+      <c r="G58" s="3">
         <v>310700</v>
-      </c>
-      <c r="G58" s="3">
-        <v>12000</v>
       </c>
       <c r="H58" s="3">
         <v>12000</v>
       </c>
       <c r="I58" s="3">
-        <v>555900</v>
+        <v>12000</v>
       </c>
       <c r="J58" s="3">
+        <v>947600</v>
+      </c>
+      <c r="K58" s="3">
         <v>121500</v>
       </c>
-      <c r="K58" s="3"/>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3"/>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>8455000</v>
+        <v>11317600</v>
       </c>
       <c r="E59" s="3">
-        <v>8388600</v>
+        <v>11298900</v>
       </c>
       <c r="F59" s="3">
+        <v>11207800</v>
+      </c>
+      <c r="G59" s="3">
         <v>6840400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>8904600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>13881100</v>
       </c>
-      <c r="I59" s="3">
-        <v>643000</v>
-      </c>
       <c r="J59" s="3">
+        <v>251300</v>
+      </c>
+      <c r="K59" s="3">
         <v>674700</v>
       </c>
-      <c r="K59" s="3"/>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3"/>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D60" s="3">
-        <v>16058800</v>
+      <c r="D60" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E60" s="3">
-        <v>16288200</v>
+        <v>27563300</v>
       </c>
       <c r="F60" s="3">
+        <v>25899000</v>
+      </c>
+      <c r="G60" s="3">
         <v>14258200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>19433100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>15615000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>589400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>877100</v>
       </c>
-      <c r="K60" s="3"/>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3"/>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>20544700</v>
+        <v>9276800</v>
       </c>
       <c r="E61" s="3">
-        <v>18142700</v>
+        <v>9040300</v>
       </c>
       <c r="F61" s="3">
+        <v>8531900</v>
+      </c>
+      <c r="G61" s="3">
         <v>21415500</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>22628700</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>21826500</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1750400</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1874400</v>
       </c>
-      <c r="K61" s="3"/>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3"/>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2024,24 +2205,27 @@
       <c r="E62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F62" s="3">
-        <v>0</v>
+      <c r="F62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G62" s="3">
+        <v>0</v>
+      </c>
+      <c r="H62" s="3">
         <v>5400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>11100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>141200</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>96300</v>
       </c>
-      <c r="K62" s="3"/>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3"/>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2066,9 +2250,12 @@
       <c r="J63" s="3">
         <v>0</v>
       </c>
-      <c r="K63" s="3"/>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K63" s="3">
+        <v>0</v>
+      </c>
+      <c r="L63" s="3"/>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2093,9 +2280,12 @@
       <c r="J64" s="3">
         <v>0</v>
       </c>
-      <c r="K64" s="3"/>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K64" s="3">
+        <v>0</v>
+      </c>
+      <c r="L64" s="3"/>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2120,36 +2310,42 @@
       <c r="J65" s="3">
         <v>0</v>
       </c>
-      <c r="K65" s="3"/>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K65" s="3">
+        <v>0</v>
+      </c>
+      <c r="L65" s="3"/>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>36925400</v>
+      </c>
+      <c r="E66" s="3">
         <v>37063200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>34943200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>35930000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>42321800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>37764300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2581800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>3088800</v>
       </c>
-      <c r="K66" s="3"/>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3"/>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2161,8 +2357,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2187,9 +2384,12 @@
       <c r="J68" s="3">
         <v>0</v>
       </c>
-      <c r="K68" s="3"/>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K68" s="3">
+        <v>0</v>
+      </c>
+      <c r="L68" s="3"/>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2214,9 +2414,12 @@
       <c r="J69" s="3">
         <v>0</v>
       </c>
-      <c r="K69" s="3"/>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K69" s="3">
+        <v>0</v>
+      </c>
+      <c r="L69" s="3"/>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2241,9 +2444,12 @@
       <c r="J70" s="3">
         <v>0</v>
       </c>
-      <c r="K70" s="3"/>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K70" s="3">
+        <v>0</v>
+      </c>
+      <c r="L70" s="3"/>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2268,36 +2474,42 @@
       <c r="J71" s="3">
         <v>0</v>
       </c>
-      <c r="K71" s="3"/>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K71" s="3">
+        <v>0</v>
+      </c>
+      <c r="L71" s="3"/>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>5610200</v>
+      </c>
+      <c r="E72" s="3">
         <v>4701000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>4645400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>4613000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>4428100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>4318800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>4240000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>3446700</v>
       </c>
-      <c r="K72" s="3"/>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3"/>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2322,9 +2534,12 @@
       <c r="J73" s="3">
         <v>0</v>
       </c>
-      <c r="K73" s="3"/>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K73" s="3">
+        <v>0</v>
+      </c>
+      <c r="L73" s="3"/>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2349,9 +2564,12 @@
       <c r="J74" s="3">
         <v>0</v>
       </c>
-      <c r="K74" s="3"/>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K74" s="3">
+        <v>0</v>
+      </c>
+      <c r="L74" s="3"/>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2376,36 +2594,42 @@
       <c r="J75" s="3">
         <v>0</v>
       </c>
-      <c r="K75" s="3"/>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K75" s="3">
+        <v>0</v>
+      </c>
+      <c r="L75" s="3"/>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>10060900</v>
+      </c>
+      <c r="E76" s="3">
         <v>10106000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>10128100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>10401200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>10302200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>10102500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>6767300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>6174400</v>
       </c>
-      <c r="K76" s="3"/>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3"/>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2430,68 +2654,77 @@
       <c r="J77" s="3">
         <v>0</v>
       </c>
-      <c r="K77" s="3"/>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K77" s="3">
+        <v>0</v>
+      </c>
+      <c r="L77" s="3"/>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43434</v>
+      </c>
+      <c r="E80" s="2">
         <v>43100</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>42735</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42369</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42004</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>41639</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41274</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>40908</v>
       </c>
-      <c r="K80" s="2"/>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L80" s="2"/>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E81" s="3">
         <v>166700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>125400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>274900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>199500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>364200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>856900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>30800</v>
       </c>
-      <c r="K81" s="3"/>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3"/>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2503,35 +2736,39 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3">
-        <v>164000</v>
+      <c r="D83" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E83" s="3">
-        <v>166800</v>
+        <v>146200</v>
       </c>
       <c r="F83" s="3">
-        <v>172100</v>
+        <v>144100</v>
       </c>
       <c r="G83" s="3">
-        <v>139700</v>
+        <v>164100</v>
       </c>
       <c r="H83" s="3">
-        <v>139000</v>
+        <v>125000</v>
       </c>
       <c r="I83" s="3">
-        <v>170100</v>
+        <v>111200</v>
       </c>
       <c r="J83" s="3">
+        <v>96500</v>
+      </c>
+      <c r="K83" s="3">
         <v>96600</v>
       </c>
-      <c r="K83" s="3"/>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3"/>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2556,9 +2793,12 @@
       <c r="J84" s="3">
         <v>0</v>
       </c>
-      <c r="K84" s="3"/>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K84" s="3">
+        <v>0</v>
+      </c>
+      <c r="L84" s="3"/>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2583,9 +2823,12 @@
       <c r="J85" s="3">
         <v>0</v>
       </c>
-      <c r="K85" s="3"/>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K85" s="3">
+        <v>0</v>
+      </c>
+      <c r="L85" s="3"/>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2610,9 +2853,12 @@
       <c r="J86" s="3">
         <v>0</v>
       </c>
-      <c r="K86" s="3"/>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K86" s="3">
+        <v>0</v>
+      </c>
+      <c r="L86" s="3"/>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2637,9 +2883,12 @@
       <c r="J87" s="3">
         <v>0</v>
       </c>
-      <c r="K87" s="3"/>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K87" s="3">
+        <v>0</v>
+      </c>
+      <c r="L87" s="3"/>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2664,36 +2913,42 @@
       <c r="J88" s="3">
         <v>0</v>
       </c>
-      <c r="K88" s="3"/>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K88" s="3">
+        <v>0</v>
+      </c>
+      <c r="L88" s="3"/>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>691100</v>
+      </c>
+      <c r="E89" s="3">
         <v>1069700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>603600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-761800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-987200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>702300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>645400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-556800</v>
       </c>
-      <c r="K89" s="3"/>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3"/>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2705,35 +2960,39 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-325700</v>
+      </c>
+      <c r="E91" s="3">
         <v>-193500</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-318700</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-295900</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-600800</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-166100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-79000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-46600</v>
       </c>
-      <c r="K91" s="3"/>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3"/>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2758,9 +3017,12 @@
       <c r="J92" s="3">
         <v>0</v>
       </c>
-      <c r="K92" s="3"/>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K92" s="3">
+        <v>0</v>
+      </c>
+      <c r="L92" s="3"/>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2785,36 +3047,42 @@
       <c r="J93" s="3">
         <v>0</v>
       </c>
-      <c r="K93" s="3"/>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K93" s="3">
+        <v>0</v>
+      </c>
+      <c r="L93" s="3"/>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>142400</v>
+      </c>
+      <c r="E94" s="3">
         <v>-47300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-639700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>781200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>449100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>3323600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-16600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>390700</v>
       </c>
-      <c r="K94" s="3"/>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3"/>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2826,35 +3094,39 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-151800</v>
+      </c>
+      <c r="E96" s="3">
         <v>-117400</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-91300</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-92600</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-93100</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-91300</v>
-      </c>
-      <c r="I96" s="3">
-        <v>-61100</v>
       </c>
       <c r="J96" s="3">
         <v>-61100</v>
       </c>
-      <c r="K96" s="3"/>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K96" s="3">
+        <v>-61100</v>
+      </c>
+      <c r="L96" s="3"/>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -2879,9 +3151,12 @@
       <c r="J97" s="3">
         <v>0</v>
       </c>
-      <c r="K97" s="3"/>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K97" s="3">
+        <v>0</v>
+      </c>
+      <c r="L97" s="3"/>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -2906,9 +3181,12 @@
       <c r="J98" s="3">
         <v>0</v>
       </c>
-      <c r="K98" s="3"/>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K98" s="3">
+        <v>0</v>
+      </c>
+      <c r="L98" s="3"/>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -2933,88 +3211,100 @@
       <c r="J99" s="3">
         <v>0</v>
       </c>
-      <c r="K99" s="3"/>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K99" s="3">
+        <v>0</v>
+      </c>
+      <c r="L99" s="3"/>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-575800</v>
+      </c>
+      <c r="E100" s="3">
         <v>434800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>230900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-652000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>917800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-270500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-651700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-106600</v>
       </c>
-      <c r="K100" s="3"/>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3"/>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-19500</v>
+      </c>
+      <c r="E101" s="3">
         <v>10700</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-26000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-5600</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-10500</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>6200</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>400</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-100</v>
       </c>
-      <c r="K101" s="3"/>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3"/>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>238200</v>
+      </c>
+      <c r="E102" s="3">
         <v>1467900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>168900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-638100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>369200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>3761600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-22500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-272900</v>
       </c>
-      <c r="K102" s="3"/>
+      <c r="L102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Financials/Yearly/JEF_YR_FIN.xlsx
+++ b/Financials/Yearly/JEF_YR_FIN.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7898EB6A-8D0F-478B-BAC4-23437DF2DCB6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
   </bookViews>
   <sheets>
     <sheet name="JEF" sheetId="6" r:id="rId1"/>
@@ -23,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="92">
   <si>
     <t>JEF</t>
   </si>
@@ -304,7 +303,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
@@ -445,23 +444,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -497,23 +479,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -689,153 +654,165 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="11" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.109375" style="1"/>
+    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43799</v>
+      </c>
+      <c r="E7" s="2">
         <v>43434</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43100</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42735</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42369</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42004</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41639</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41274</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>40908</v>
       </c>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>8</v>
+      <c r="D8" s="3">
+        <v>5153600</v>
       </c>
       <c r="E8" s="3">
-        <v>12206600</v>
+        <v>4788000</v>
       </c>
       <c r="F8" s="3">
-        <v>10845700</v>
+        <v>4870700</v>
       </c>
       <c r="G8" s="3">
+        <v>3848000</v>
+      </c>
+      <c r="H8" s="3">
         <v>11621000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>12281600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>10755400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>8814100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1400</v>
       </c>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>2008500</v>
+      </c>
+      <c r="E9" s="3">
         <v>1737000</v>
       </c>
-      <c r="E9" s="3">
-        <v>8191000</v>
-      </c>
       <c r="F9" s="3">
-        <v>7830600</v>
+        <v>1252400</v>
       </c>
       <c r="G9" s="3">
-        <v>8674500</v>
+        <v>1149700</v>
       </c>
       <c r="H9" s="3">
-        <v>9088000</v>
+        <v>8474700</v>
       </c>
       <c r="I9" s="3">
-        <v>8291700</v>
+        <v>8872700</v>
       </c>
       <c r="J9" s="3">
+        <v>8141000</v>
+      </c>
+      <c r="K9" s="3">
         <v>15047600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>401400</v>
       </c>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>8</v>
+      <c r="D10" s="3">
+        <v>3145200</v>
       </c>
       <c r="E10" s="3">
-        <v>4015600</v>
+        <v>3051000</v>
       </c>
       <c r="F10" s="3">
-        <v>3015100</v>
+        <v>3618300</v>
       </c>
       <c r="G10" s="3">
-        <v>2946500</v>
+        <v>2698300</v>
       </c>
       <c r="H10" s="3">
-        <v>3193600</v>
+        <v>3146300</v>
       </c>
       <c r="I10" s="3">
-        <v>2463600</v>
+        <v>3408900</v>
       </c>
       <c r="J10" s="3">
+        <v>2614400</v>
+      </c>
+      <c r="K10" s="3">
         <v>-6233600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>-400000</v>
       </c>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -848,8 +825,9 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -877,9 +855,12 @@
       <c r="K12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -907,69 +888,78 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>8</v>
+      <c r="D14" s="3">
+        <v>-205000</v>
       </c>
       <c r="E14" s="3">
+        <v>-221700</v>
+      </c>
+      <c r="F14" s="3">
         <v>-168100</v>
       </c>
-      <c r="F14" s="3">
-        <v>63800</v>
-      </c>
       <c r="G14" s="3">
-        <v>0</v>
+        <v>56300</v>
       </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>-22700</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>90300</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>28400</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>6400</v>
       </c>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>152900</v>
+      </c>
+      <c r="E15" s="3">
         <v>120300</v>
       </c>
-      <c r="E15" s="3">
-        <v>208900</v>
-      </c>
       <c r="F15" s="3">
-        <v>211600</v>
+        <v>110400</v>
       </c>
       <c r="G15" s="3">
+        <v>117100</v>
+      </c>
+      <c r="H15" s="3">
         <v>224100</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>186000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>167400</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>116400</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>36800</v>
       </c>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -979,68 +969,75 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>3525000</v>
+        <v>4878000</v>
       </c>
       <c r="E17" s="3">
-        <v>11140900</v>
+        <v>4548900</v>
       </c>
       <c r="F17" s="3">
-        <v>10713400</v>
+        <v>4088100</v>
       </c>
       <c r="G17" s="3">
+        <v>3919400</v>
+      </c>
+      <c r="H17" s="3">
         <v>11326300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>11952300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>10487500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>7958600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>497600</v>
       </c>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>8</v>
+      <c r="D18" s="3">
+        <v>275600</v>
       </c>
       <c r="E18" s="3">
-        <v>1065700</v>
+        <v>239100</v>
       </c>
       <c r="F18" s="3">
-        <v>132300</v>
+        <v>782600</v>
       </c>
       <c r="G18" s="3">
+        <v>-71400</v>
+      </c>
+      <c r="H18" s="3">
         <v>294700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>329300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>267900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>855400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-496200</v>
       </c>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1053,68 +1050,75 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>8</v>
+      <c r="D20" s="3">
+        <v>203000</v>
       </c>
       <c r="E20" s="3">
-        <v>-51900</v>
+        <v>57000</v>
       </c>
       <c r="F20" s="3">
-        <v>184100</v>
+        <v>-74900</v>
       </c>
       <c r="G20" s="3">
+        <v>154600</v>
+      </c>
+      <c r="H20" s="3">
         <v>63000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>30600</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>243600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>590500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>641200</v>
       </c>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>8</v>
+      <c r="D21" s="3">
+        <v>618300</v>
       </c>
       <c r="E21" s="3">
-        <v>1160000</v>
+        <v>401300</v>
       </c>
       <c r="F21" s="3">
-        <v>460500</v>
+        <v>800600</v>
       </c>
       <c r="G21" s="3">
+        <v>178100</v>
+      </c>
+      <c r="H21" s="3">
         <v>521700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>484800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>622700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>1542500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>241600</v>
       </c>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1124,87 +1128,96 @@
       <c r="E22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F22" s="3" t="s">
-        <v>8</v>
+      <c r="F22" s="3">
+        <v>101200</v>
       </c>
       <c r="G22" s="3">
+        <v>95800</v>
+      </c>
+      <c r="H22" s="3">
         <v>111400</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>117200</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>85000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>92600</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>111700</v>
       </c>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>8</v>
+      <c r="D23" s="3">
+        <v>478600</v>
       </c>
       <c r="E23" s="3">
-        <v>1013800</v>
+        <v>296100</v>
       </c>
       <c r="F23" s="3">
-        <v>316400</v>
+        <v>606500</v>
       </c>
       <c r="G23" s="3">
+        <v>-12600</v>
+      </c>
+      <c r="H23" s="3">
         <v>246300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>242700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>426500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>1353400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>33300</v>
       </c>
-      <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>19000</v>
+        <v>-484000</v>
       </c>
       <c r="E24" s="3">
-        <v>310500</v>
+        <v>-439800</v>
       </c>
       <c r="F24" s="3">
-        <v>122100</v>
+        <v>191800</v>
       </c>
       <c r="G24" s="3">
+        <v>25800</v>
+      </c>
+      <c r="H24" s="3">
         <v>109900</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>166000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>136500</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>539500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>62400</v>
       </c>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1232,69 +1245,78 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-      <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>8</v>
+      <c r="D26" s="3">
+        <v>962600</v>
       </c>
       <c r="E26" s="3">
-        <v>703300</v>
+        <v>735900</v>
       </c>
       <c r="F26" s="3">
-        <v>194300</v>
+        <v>414700</v>
       </c>
       <c r="G26" s="3">
+        <v>-38400</v>
+      </c>
+      <c r="H26" s="3">
         <v>136300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>76700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>290100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>813900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-29100</v>
       </c>
-      <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>8</v>
+      <c r="D27" s="3">
+        <v>954000</v>
       </c>
       <c r="E27" s="3">
-        <v>617200</v>
+        <v>702000</v>
       </c>
       <c r="F27" s="3">
-        <v>125400</v>
+        <v>328600</v>
       </c>
       <c r="G27" s="3">
+        <v>-107300</v>
+      </c>
+      <c r="H27" s="3">
         <v>269400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>215700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>411100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>892400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>33200</v>
       </c>
-      <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1322,39 +1344,45 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-      <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>8</v>
+      <c r="D29" s="3">
+        <v>0</v>
       </c>
       <c r="E29" s="3">
-        <v>-450500</v>
+        <v>315200</v>
       </c>
       <c r="F29" s="3">
-        <v>0</v>
+        <v>-161900</v>
       </c>
       <c r="G29" s="3">
+        <v>232700</v>
+      </c>
+      <c r="H29" s="3">
         <v>5500</v>
       </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
         <v>-16200</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>-46900</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>-35500</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-2400</v>
       </c>
-      <c r="L29" s="3"/>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1382,9 +1410,12 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-      <c r="L30" s="3"/>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1412,69 +1443,78 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-      <c r="L31" s="3"/>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>8</v>
+      <c r="D32" s="3">
+        <v>-203000</v>
       </c>
       <c r="E32" s="3">
-        <v>51900</v>
+        <v>-57000</v>
       </c>
       <c r="F32" s="3">
-        <v>-184100</v>
+        <v>74900</v>
       </c>
       <c r="G32" s="3">
+        <v>-154600</v>
+      </c>
+      <c r="H32" s="3">
         <v>-63000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-30600</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-243600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-590500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-641200</v>
       </c>
-      <c r="L32" s="3"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>8</v>
+      <c r="D33" s="3">
+        <v>954000</v>
       </c>
       <c r="E33" s="3">
+        <v>1017200</v>
+      </c>
+      <c r="F33" s="3">
         <v>166700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>125400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>274900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>199500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>364200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>856900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>30800</v>
       </c>
-      <c r="L33" s="3"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M33" s="3"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1502,74 +1542,83 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-      <c r="L34" s="3"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>8</v>
+      <c r="D35" s="3">
+        <v>954000</v>
       </c>
       <c r="E35" s="3">
+        <v>1017200</v>
+      </c>
+      <c r="F35" s="3">
         <v>166700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>125400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>274900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>199500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>364200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>856900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>30800</v>
       </c>
-      <c r="L35" s="3"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M35" s="3"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43799</v>
+      </c>
+      <c r="E38" s="2">
         <v>43434</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43100</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42735</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42369</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42004</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41639</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41274</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>40908</v>
       </c>
-      <c r="L38" s="2"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1582,8 +1631,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1596,52 +1646,56 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>7678800</v>
+      </c>
+      <c r="E41" s="3">
         <v>5258800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>5275500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>3807600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>3638600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>4276800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>3907600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>3648900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>168500</v>
       </c>
-      <c r="L41" s="3"/>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M41" s="3"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>11924200</v>
+      </c>
+      <c r="E42" s="3">
         <v>9324000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>11411400</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>11606000</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>8</v>
@@ -1649,45 +1703,51 @@
       <c r="I42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J42" s="3">
+      <c r="J42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K42" s="3">
         <v>1672600</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>150100</v>
       </c>
-      <c r="L42" s="3"/>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M42" s="3"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>5744100</v>
+      </c>
+      <c r="E43" s="3">
         <v>6287400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>5419000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>4425200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>3831000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>3934800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>3227900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>936400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>339000</v>
       </c>
-      <c r="L43" s="3"/>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M43" s="3"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1697,177 +1757,195 @@
       <c r="E44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F44" s="3">
+      <c r="F44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G44" s="3">
         <v>309900</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>288100</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>422900</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>364300</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>383500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>354600</v>
       </c>
-      <c r="L44" s="3"/>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M44" s="3"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>796800</v>
+      </c>
+      <c r="E45" s="3">
         <v>708000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>578000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>857800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1009400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>3668400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>3801600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>60200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>241300</v>
       </c>
-      <c r="L45" s="3"/>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M45" s="3"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D46" s="3" t="s">
-        <v>8</v>
+      <c r="D46" s="3">
+        <v>26144000</v>
       </c>
       <c r="E46" s="3">
+        <v>21578100</v>
+      </c>
+      <c r="F46" s="3">
         <v>22683900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>21006500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>8508800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>12302900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>11301500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>536300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1253500</v>
       </c>
-      <c r="L46" s="3"/>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M46" s="3"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>40163600</v>
+        <v>18548700</v>
       </c>
       <c r="E47" s="3">
+        <v>21290500</v>
+      </c>
+      <c r="F47" s="3">
         <v>18866100</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>17926700</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>56959600</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>34000700</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>29999100</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>6989600</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>4218700</v>
       </c>
-      <c r="L47" s="3"/>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M47" s="3"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E48" s="3">
+      <c r="E48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F48" s="3">
         <v>750400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>709200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1443800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>726400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>885900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1902300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1085700</v>
       </c>
-      <c r="L48" s="3"/>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M48" s="3"/>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1922900</v>
+      </c>
+      <c r="E49" s="3">
         <v>1890100</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>2463200</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>2513700</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>4384700</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>2720800</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>2768600</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>2612600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>876600</v>
       </c>
-      <c r="L49" s="3"/>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M49" s="3"/>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1895,9 +1973,12 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-      <c r="L50" s="3"/>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3"/>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1925,39 +2006,45 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-      <c r="L51" s="3"/>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3"/>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>2844600</v>
+      </c>
+      <c r="E52" s="3">
         <v>2372300</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>2405600</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>2915200</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>2760800</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>2873200</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>2911700</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>4118300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>2030300</v>
       </c>
-      <c r="L52" s="3"/>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M52" s="3"/>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1985,39 +2072,45 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-      <c r="L53" s="3"/>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3"/>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>49460200</v>
+      </c>
+      <c r="E54" s="3">
         <v>47131100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>47169100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>45071300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>46331200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>52623900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>47866800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>9349100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>9263200</v>
       </c>
-      <c r="L54" s="3"/>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M54" s="3"/>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2030,8 +2123,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2044,158 +2138,174 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>8179000</v>
+      </c>
+      <c r="E57" s="3">
         <v>7407000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>7167700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>7373700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>7107100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>10516500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1721900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1259600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>81000</v>
       </c>
-      <c r="L57" s="3"/>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M57" s="3"/>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>8062700</v>
+      </c>
+      <c r="E58" s="3">
         <v>9030600</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>9096700</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>7317500</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>310700</v>
-      </c>
-      <c r="H58" s="3">
-        <v>12000</v>
       </c>
       <c r="I58" s="3">
         <v>12000</v>
       </c>
       <c r="J58" s="3">
+        <v>12000</v>
+      </c>
+      <c r="K58" s="3">
         <v>947600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>121500</v>
       </c>
-      <c r="L58" s="3"/>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M58" s="3"/>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>12057600</v>
+      </c>
+      <c r="E59" s="3">
         <v>11317600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>11298900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>11207800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>6840400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>8904600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>13881100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>251300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>674700</v>
       </c>
-      <c r="L59" s="3"/>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M59" s="3"/>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D60" s="3" t="s">
-        <v>8</v>
+      <c r="D60" s="3">
+        <v>28299300</v>
       </c>
       <c r="E60" s="3">
+        <v>27755200</v>
+      </c>
+      <c r="F60" s="3">
         <v>27563300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>25899000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>14258200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>19433100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>15615000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>589400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>877100</v>
       </c>
-      <c r="L60" s="3"/>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M60" s="3"/>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>11532700</v>
+      </c>
+      <c r="E61" s="3">
         <v>9276800</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>9040300</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>8531900</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>21415500</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>22628700</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>21826500</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1750400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1874400</v>
       </c>
-      <c r="L61" s="3"/>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M61" s="3"/>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2208,24 +2318,27 @@
       <c r="F62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G62" s="3">
-        <v>0</v>
+      <c r="G62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H62" s="3">
+        <v>0</v>
+      </c>
+      <c r="I62" s="3">
         <v>5400</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>11100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>141200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>96300</v>
       </c>
-      <c r="L62" s="3"/>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M62" s="3"/>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2253,9 +2366,12 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-      <c r="L63" s="3"/>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3"/>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2283,9 +2399,12 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-      <c r="L64" s="3"/>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3"/>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2313,39 +2432,45 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-      <c r="L65" s="3"/>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3"/>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>36925400</v>
+        <v>39880500</v>
       </c>
       <c r="E66" s="3">
+        <v>37070200</v>
+      </c>
+      <c r="F66" s="3">
         <v>37063200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>34943200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>35930000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>42321800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>37764300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2581800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3088800</v>
       </c>
-      <c r="L66" s="3"/>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M66" s="3"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2358,8 +2483,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2387,9 +2513,12 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-      <c r="L68" s="3"/>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2417,9 +2546,12 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-      <c r="L69" s="3"/>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2447,9 +2579,12 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-      <c r="L70" s="3"/>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2477,39 +2612,45 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-      <c r="L71" s="3"/>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>5933400</v>
+      </c>
+      <c r="E72" s="3">
         <v>5610200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>4701000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>4645400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>4613000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>4428100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>4318800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>4240000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>3446700</v>
       </c>
-      <c r="L72" s="3"/>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M72" s="3"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2537,9 +2678,12 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-      <c r="L73" s="3"/>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2567,9 +2711,12 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-      <c r="L74" s="3"/>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2597,39 +2744,45 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-      <c r="L75" s="3"/>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>9579700</v>
+      </c>
+      <c r="E76" s="3">
         <v>10060900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>10106000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>10128100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>10401200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>10302200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>10102500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>6767300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>6174400</v>
       </c>
-      <c r="L76" s="3"/>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M76" s="3"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2657,74 +2810,83 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-      <c r="L77" s="3"/>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43799</v>
+      </c>
+      <c r="E80" s="2">
         <v>43434</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43100</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42735</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42369</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42004</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41639</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41274</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>40908</v>
       </c>
-      <c r="L80" s="2"/>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M80" s="2"/>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>8</v>
+      <c r="D81" s="3">
+        <v>954000</v>
       </c>
       <c r="E81" s="3">
+        <v>1017200</v>
+      </c>
+      <c r="F81" s="3">
         <v>166700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>125400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>274900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>199500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>364200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>856900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>30800</v>
       </c>
-      <c r="L81" s="3"/>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M81" s="3"/>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2737,38 +2899,42 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>8</v>
+      <c r="D83" s="3">
+        <v>139700</v>
       </c>
       <c r="E83" s="3">
-        <v>146200</v>
+        <v>105200</v>
       </c>
       <c r="F83" s="3">
-        <v>144100</v>
+        <v>92900</v>
       </c>
       <c r="G83" s="3">
+        <v>94900</v>
+      </c>
+      <c r="H83" s="3">
         <v>164100</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>125000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>111200</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>96500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>96600</v>
       </c>
-      <c r="L83" s="3"/>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M83" s="3"/>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2796,9 +2962,12 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-      <c r="L84" s="3"/>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3"/>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2826,9 +2995,12 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-      <c r="L85" s="3"/>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3"/>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2856,9 +3028,12 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-      <c r="L86" s="3"/>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3"/>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2886,9 +3061,12 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-      <c r="L87" s="3"/>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3"/>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2916,39 +3094,45 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-      <c r="L88" s="3"/>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3"/>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-827800</v>
+      </c>
+      <c r="E89" s="3">
         <v>691100</v>
       </c>
-      <c r="E89" s="3">
-        <v>1069700</v>
-      </c>
       <c r="F89" s="3">
-        <v>603600</v>
+        <v>785200</v>
       </c>
       <c r="G89" s="3">
+        <v>567200</v>
+      </c>
+      <c r="H89" s="3">
         <v>-761800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-987200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>702300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>645400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-556800</v>
       </c>
-      <c r="L89" s="3"/>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M89" s="3"/>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2961,38 +3145,42 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-232200</v>
+      </c>
+      <c r="E91" s="3">
         <v>-325700</v>
       </c>
-      <c r="E91" s="3">
-        <v>-193500</v>
-      </c>
       <c r="F91" s="3">
-        <v>-318700</v>
+        <v>-123000</v>
       </c>
       <c r="G91" s="3">
+        <v>-256700</v>
+      </c>
+      <c r="H91" s="3">
         <v>-295900</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-600800</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-166100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-79000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-46600</v>
       </c>
-      <c r="L91" s="3"/>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M91" s="3"/>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3020,9 +3208,12 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-      <c r="L92" s="3"/>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3"/>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3050,39 +3241,45 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-      <c r="L93" s="3"/>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3"/>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>1707100</v>
+      </c>
+      <c r="E94" s="3">
         <v>142400</v>
       </c>
-      <c r="E94" s="3">
-        <v>-47300</v>
-      </c>
       <c r="F94" s="3">
-        <v>-639700</v>
+        <v>-54600</v>
       </c>
       <c r="G94" s="3">
+        <v>-636200</v>
+      </c>
+      <c r="H94" s="3">
         <v>781200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>449100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>3323600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-16600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>390700</v>
       </c>
-      <c r="L94" s="3"/>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M94" s="3"/>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3095,38 +3292,42 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-149600</v>
+      </c>
+      <c r="E96" s="3">
         <v>-151800</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-117400</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-91300</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-92600</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-93100</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-91300</v>
-      </c>
-      <c r="J96" s="3">
-        <v>-61100</v>
       </c>
       <c r="K96" s="3">
         <v>-61100</v>
       </c>
-      <c r="L96" s="3"/>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="L96" s="3">
+        <v>-61100</v>
+      </c>
+      <c r="M96" s="3"/>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3154,9 +3355,12 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-      <c r="L97" s="3"/>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3"/>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3184,9 +3388,12 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-      <c r="L98" s="3"/>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3"/>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3214,97 +3421,109 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-      <c r="L99" s="3"/>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3"/>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>1589600</v>
+      </c>
+      <c r="E100" s="3">
         <v>-575800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>434800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>230900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-652000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>917800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-270500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-651700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-106600</v>
       </c>
-      <c r="L100" s="3"/>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M100" s="3"/>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E101" s="3">
         <v>-19500</v>
       </c>
-      <c r="E101" s="3">
-        <v>10700</v>
-      </c>
       <c r="F101" s="3">
-        <v>-26000</v>
+        <v>12100</v>
       </c>
       <c r="G101" s="3">
+        <v>-27500</v>
+      </c>
+      <c r="H101" s="3">
         <v>-5600</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-10500</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>6200</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>400</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-100</v>
       </c>
-      <c r="L101" s="3"/>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M101" s="3"/>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>2467800</v>
+      </c>
+      <c r="E102" s="3">
         <v>238200</v>
       </c>
-      <c r="E102" s="3">
-        <v>1467900</v>
-      </c>
       <c r="F102" s="3">
-        <v>168900</v>
+        <v>1177400</v>
       </c>
       <c r="G102" s="3">
+        <v>134400</v>
+      </c>
+      <c r="H102" s="3">
         <v>-638100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>369200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>3761600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-22500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-272900</v>
       </c>
-      <c r="L102" s="3"/>
+      <c r="M102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
